--- a/python/TestesAutomatizados/PDV2/cenariosDeTeste.xlsx
+++ b/python/TestesAutomatizados/PDV2/cenariosDeTeste.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9975" windowHeight="6060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Venda" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Ativo</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Verificar se o sistema não teve alteração na leitura dos produtos</t>
+  </si>
+  <si>
+    <t>Venda de um item com quantidade acima de 1</t>
+  </si>
+  <si>
+    <t>Inserir o código manualmente com quantidade 3</t>
+  </si>
+  <si>
+    <t>Verificar se o sistema não teve impacto ao inserir quantidade superior a 1</t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -603,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -620,39 +629,39 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
         <v>1030048</v>
       </c>
       <c r="C4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -660,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>1030050</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
+        <v>1030048</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -678,6 +687,32 @@
         <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1030050</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>18</v>
       </c>
     </row>

--- a/python/TestesAutomatizados/PDV2/cenariosDeTeste.xlsx
+++ b/python/TestesAutomatizados/PDV2/cenariosDeTeste.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">Ativado</t>
+  </si>
   <si>
     <t xml:space="preserve">Produto</t>
   </si>
@@ -83,6 +86,54 @@
   </si>
   <si>
     <t xml:space="preserve">Verificar se o sistema não teve alteração na leitura dos produtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venda Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar somente a venda de um kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserir quantidade 1 do código de um kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se venda de kit está ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venda de 2 kits no PDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se venda de 2 kits seguidos está ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserir quantidade 1 do código do mesmo kit anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venda Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venda de combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compre um cafeteira e leve 3 capsulas por 3 centavos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar venda de combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venda de Kit + Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venda de 1 kit e combo cafeteira + 3 capsulas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar venda de combo com o kit</t>
   </si>
 </sst>
 </file>
@@ -182,37 +233,29 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -405,163 +448,496 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="43.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="53.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="8" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16384" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="53.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>1030050</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>1030048</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>1030048</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="C4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>1030048</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="C5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>1030050</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1047802</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1047802</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1047802</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1033862</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1030049</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>1030048</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1030050</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>1047802</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>1033862</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>1030049</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>1030048</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>1030050</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/python/TestesAutomatizados/PDV2/cenariosDeTeste.xlsx
+++ b/python/TestesAutomatizados/PDV2/cenariosDeTeste.xlsx
@@ -450,8 +450,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,7 +463,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="43.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="53.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
